--- a/biology/Botanique/Aiguillon_(botanique)/Aiguillon_(botanique).xlsx
+++ b/biology/Botanique/Aiguillon_(botanique)/Aiguillon_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aiguillons sont des excroissance piquantes qui naissent de l'écorce ou de l'épiderme de certaines plantes, distinctes des épines qui sont un prolongement de la partie ligneuse de la plante. 
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des productions de l'épiderme des plantes plus ou moins résistantes qui se développent sur diverses parties externes, aériennes, des végétaux. Ces expansions se forment à partir du tissu épidermique qui devient subéreux, plus rarement ligneux[1]. Les aiguillons diffèrent des épines : contrairement à celles-ci, il est possible de les détacher sans enlever les parties intérieures de l'écorce. 
-Ce que l'on appelle vulgairement les épines de rosiers (Rosa canina) sont des aiguillons[2]. 
-Les fruits ellipsoïdes de la carotte (Daucus carota) sont pourvus d'aiguillons[3],[4]. 
-Chez le robinier (Robinia pseudoacacia), les stipules sont remplacées par des aiguillons aigus qui persistent après la chute des feuilles[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des productions de l'épiderme des plantes plus ou moins résistantes qui se développent sur diverses parties externes, aériennes, des végétaux. Ces expansions se forment à partir du tissu épidermique qui devient subéreux, plus rarement ligneux. Les aiguillons diffèrent des épines : contrairement à celles-ci, il est possible de les détacher sans enlever les parties intérieures de l'écorce. 
+Ce que l'on appelle vulgairement les épines de rosiers (Rosa canina) sont des aiguillons. 
+Les fruits ellipsoïdes de la carotte (Daucus carota) sont pourvus d'aiguillons,. 
+Chez le robinier (Robinia pseudoacacia), les stipules sont remplacées par des aiguillons aigus qui persistent après la chute des feuilles.
 </t>
         </is>
       </c>
